--- a/biology/Botanique/Parc_Zhongshan_(Shanghai)/Parc_Zhongshan_(Shanghai).xlsx
+++ b/biology/Botanique/Parc_Zhongshan_(Shanghai)/Parc_Zhongshan_(Shanghai).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Zhongshan  (Chinois simplifié: 中山公园, Chinois traditionnel: 中山公園, Pinyin: Zhōngshān Gōngyuán, Shanghaïen: Tsonsae Gonyu), anciennement appelé "Jessfield Parc" en anglais et Zhaofeng Parc ((zh)), est un parc à Shanghai, en Chine. Le parc a une large collection d'arbres et de fleurs. Les visiteurs font voler des cerfs-volants et jouent ou font du sport sur de grandes pelouses.
 </t>
@@ -511,7 +523,9 @@
           <t>Emplacement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est situé dans le district de Changning. La rivière Suzhou ainsi que l'Université de Chine Orientale de la Politique et le Droit sont situées au nord du parc. Il y a un des plus grands centres commerciaux de Shanghai surplombé d'un grand gratte-ciel, Cloud Nine, au sud-ouest du parc.
 </t>
@@ -542,9 +556,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc a été créé en 1914 par le conseil municipal de Shanghai avec pour nom Jessfield Park[1]. Auparavant c'était un jardin privé détenu par H. Fogg, un promoteur immobilier britannique. Il a été rebaptisé en l'honneur du Dr Sun Yat-sen en 1944.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc a été créé en 1914 par le conseil municipal de Shanghai avec pour nom Jessfield Park. Auparavant c'était un jardin privé détenu par H. Fogg, un promoteur immobilier britannique. Il a été rebaptisé en l'honneur du Dr Sun Yat-sen en 1944.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Transport</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc peut être atteint via la ligne 2 du métro de Shanghai, la ligne 3 ou la ligne 4 à la station de métro Zhonghan Park[2]. Le parc est au nord-ouest de la station.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc peut être atteint via la ligne 2 du métro de Shanghai, la ligne 3 ou la ligne 4 à la station de métro Zhonghan Park. Le parc est au nord-ouest de la station.
 </t>
         </is>
       </c>
